--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H2">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I2">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J2">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07610666666666667</v>
+        <v>0.063209</v>
       </c>
       <c r="N2">
-        <v>0.22832</v>
+        <v>0.189627</v>
       </c>
       <c r="O2">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="P2">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="Q2">
-        <v>1.33843878176</v>
+        <v>0.9781731177710001</v>
       </c>
       <c r="R2">
-        <v>12.04594903584</v>
+        <v>8.803558059939</v>
       </c>
       <c r="S2">
-        <v>0.00904779900579266</v>
+        <v>0.006838098132801224</v>
       </c>
       <c r="T2">
-        <v>0.009047799005792662</v>
+        <v>0.006838098132801225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H3">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I3">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J3">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.639501</v>
       </c>
       <c r="N3">
-        <v>4.918503</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O3">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365667</v>
       </c>
       <c r="P3">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365668</v>
       </c>
       <c r="Q3">
-        <v>28.832844969354</v>
+        <v>25.371637025719</v>
       </c>
       <c r="R3">
-        <v>259.495604724186</v>
+        <v>228.344733231471</v>
       </c>
       <c r="S3">
-        <v>0.1949090160887711</v>
+        <v>0.1773650702720457</v>
       </c>
       <c r="T3">
-        <v>0.1949090160887711</v>
+        <v>0.1773650702720458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H4">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I4">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J4">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.34995</v>
       </c>
       <c r="O4">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254507</v>
       </c>
       <c r="P4">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254508</v>
       </c>
       <c r="Q4">
-        <v>2.0514481941</v>
+        <v>1.80518429635</v>
       </c>
       <c r="R4">
-        <v>18.4630337469</v>
+        <v>16.24665866715</v>
       </c>
       <c r="S4">
-        <v>0.01386771751084943</v>
+        <v>0.01261947107518332</v>
       </c>
       <c r="T4">
-        <v>0.01386771751084943</v>
+        <v>0.01261947107518333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>156.811283</v>
       </c>
       <c r="I5">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J5">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07610666666666667</v>
+        <v>0.063209</v>
       </c>
       <c r="N5">
-        <v>0.22832</v>
+        <v>0.189627</v>
       </c>
       <c r="O5">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="P5">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="Q5">
-        <v>3.978128014951111</v>
+        <v>3.303961462382333</v>
       </c>
       <c r="R5">
-        <v>35.80315213456</v>
+        <v>29.735653161441</v>
       </c>
       <c r="S5">
-        <v>0.02689200521465813</v>
+        <v>0.02309694704987082</v>
       </c>
       <c r="T5">
-        <v>0.02689200521465813</v>
+        <v>0.02309694704987082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>156.811283</v>
       </c>
       <c r="I6">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J6">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>1.639501</v>
       </c>
       <c r="N6">
-        <v>4.918503</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O6">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365667</v>
       </c>
       <c r="P6">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365668</v>
       </c>
       <c r="Q6">
-        <v>85.69741842992768</v>
+        <v>85.69741842992767</v>
       </c>
       <c r="R6">
-        <v>771.2767658693491</v>
+        <v>771.2767658693489</v>
       </c>
       <c r="S6">
-        <v>0.5793115291008746</v>
+        <v>0.5990834815486757</v>
       </c>
       <c r="T6">
-        <v>0.5793115291008746</v>
+        <v>0.599083481548676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>156.811283</v>
       </c>
       <c r="I7">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J7">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.34995</v>
       </c>
       <c r="O7">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254507</v>
       </c>
       <c r="P7">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254508</v>
       </c>
       <c r="Q7">
         <v>6.097345387316667</v>
@@ -880,10 +880,10 @@
         <v>54.87610848585</v>
       </c>
       <c r="S7">
-        <v>0.04121783998278562</v>
+        <v>0.04262460841600769</v>
       </c>
       <c r="T7">
-        <v>0.04121783998278562</v>
+        <v>0.04262460841600771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>32.638654</v>
       </c>
       <c r="I8">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J8">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07610666666666667</v>
+        <v>0.063209</v>
       </c>
       <c r="N8">
-        <v>0.22832</v>
+        <v>0.189627</v>
       </c>
       <c r="O8">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="P8">
-        <v>0.04153709822108353</v>
+        <v>0.03474243690088823</v>
       </c>
       <c r="Q8">
-        <v>0.8280063868088889</v>
+        <v>0.6876855602286667</v>
       </c>
       <c r="R8">
-        <v>7.452057481280002</v>
+        <v>6.189170042058</v>
       </c>
       <c r="S8">
-        <v>0.005597294000632738</v>
+        <v>0.004807391718216185</v>
       </c>
       <c r="T8">
-        <v>0.005597294000632739</v>
+        <v>0.004807391718216185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>32.638654</v>
       </c>
       <c r="I9">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J9">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,13 +989,13 @@
         <v>1.639501</v>
       </c>
       <c r="N9">
-        <v>4.918503</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O9">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365667</v>
       </c>
       <c r="P9">
-        <v>0.8947982752789683</v>
+        <v>0.9011416102365668</v>
       </c>
       <c r="Q9">
         <v>17.83703529055133</v>
@@ -1004,10 +1004,10 @@
         <v>160.533317614962</v>
       </c>
       <c r="S9">
-        <v>0.1205777300893225</v>
+        <v>0.1246930584158451</v>
       </c>
       <c r="T9">
-        <v>0.1205777300893226</v>
+        <v>0.1246930584158451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>32.638654</v>
       </c>
       <c r="I10">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J10">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>0.34995</v>
       </c>
       <c r="O10">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254507</v>
       </c>
       <c r="P10">
-        <v>0.06366462649994824</v>
+        <v>0.06411595286254508</v>
       </c>
       <c r="Q10">
         <v>1.269099663033333</v>
@@ -1066,10 +1066,10 @@
         <v>11.4218969673</v>
       </c>
       <c r="S10">
-        <v>0.008579069006313184</v>
+        <v>0.008871873371354045</v>
       </c>
       <c r="T10">
-        <v>0.008579069006313186</v>
+        <v>0.008871873371354047</v>
       </c>
     </row>
   </sheetData>
